--- a/downloads/notebooks/data/reinsurace_query_results.xlsx
+++ b/downloads/notebooks/data/reinsurace_query_results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +97,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -138,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +183,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,14 +394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -411,7 +428,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -425,7 +442,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -439,7 +456,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -453,7 +470,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -467,7 +484,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -481,7 +498,7 @@
         <v>19162</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -495,7 +512,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -509,7 +526,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -523,7 +540,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -537,7 +554,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -551,7 +568,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -565,7 +582,7 @@
         <v>11887</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -579,7 +596,7 @@
         <v>12390</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -593,7 +610,7 @@
         <v>12470</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -607,7 +624,7 @@
         <v>12602</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/downloads/notebooks/data/reinsurace_query_results.xlsx
+++ b/downloads/notebooks/data/reinsurace_query_results.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,14 +92,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -151,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,10 +170,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,16 +379,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -428,7 +411,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -442,7 +425,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -456,7 +439,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -470,7 +453,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -484,7 +467,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -498,7 +481,7 @@
         <v>19162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -512,7 +495,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -526,7 +509,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -540,7 +523,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -554,7 +537,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -568,7 +551,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -582,7 +565,7 @@
         <v>11887</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -596,7 +579,7 @@
         <v>12390</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -610,7 +593,7 @@
         <v>12470</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -624,7 +607,7 @@
         <v>12602</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/downloads/notebooks/data/reinsurace_query_results.xlsx
+++ b/downloads/notebooks/data/reinsurace_query_results.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>rp</t>
+    <t>Policy_from_Reinsurance_Tab</t>
   </si>
   <si>
-    <t>pp</t>
+    <t>Policy_from_Policy_Tab</t>
   </si>
   <si>
-    <t>lp</t>
+    <t>Policy_from_Loss_Tab</t>
   </si>
 </sst>
 </file>

--- a/downloads/notebooks/data/reinsurace_query_results.xlsx
+++ b/downloads/notebooks/data/reinsurace_query_results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,10 +86,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -92,6 +100,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -138,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +186,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,25 +397,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -411,7 +436,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -425,7 +450,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -439,7 +464,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -453,7 +478,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -467,7 +492,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -481,7 +506,7 @@
         <v>19162</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -495,7 +520,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -509,7 +534,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -523,7 +548,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -537,7 +562,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -551,7 +576,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -565,7 +590,7 @@
         <v>11887</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -579,7 +604,7 @@
         <v>12390</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -593,7 +618,7 @@
         <v>12470</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -607,7 +632,7 @@
         <v>12602</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/downloads/notebooks/data/reinsurace_query_results.xlsx
+++ b/downloads/notebooks/data/reinsurace_query_results.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,8 +28,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +81,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -100,14 +92,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -154,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,10 +170,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +204,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,32 +379,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -436,7 +411,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -450,7 +425,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -464,7 +439,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -478,7 +453,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -492,7 +467,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -506,7 +481,7 @@
         <v>19162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -520,7 +495,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -534,7 +509,7 @@
         <v>10509</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -548,7 +523,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -562,7 +537,7 @@
         <v>10880</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -576,7 +551,7 @@
         <v>10948</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -590,7 +565,7 @@
         <v>11887</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -604,7 +579,7 @@
         <v>12390</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -618,7 +593,7 @@
         <v>12470</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -632,7 +607,7 @@
         <v>12602</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/downloads/notebooks/data/reinsurace_query_results.xlsx
+++ b/downloads/notebooks/data/reinsurace_query_results.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Policy_from_Reinsurance_Tab</t>
+    <t>PolicyNumber_from_Reinsurance_Tab</t>
   </si>
   <si>
-    <t>Policy_from_Policy_Tab</t>
+    <t>PolicyNumber_from_Premium_Tab</t>
   </si>
   <si>
-    <t>Policy_from_Loss_Tab</t>
+    <t>PolicyNumber_from_Loss_Tab</t>
   </si>
 </sst>
 </file>
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10509</v>
+        <v>10244</v>
       </c>
       <c r="C3">
-        <v>10509</v>
+        <v>10244</v>
       </c>
       <c r="D3">
-        <v>10509</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10700</v>
+        <v>10509</v>
       </c>
       <c r="C4">
-        <v>10700</v>
+        <v>10509</v>
       </c>
       <c r="D4">
-        <v>10700</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10880</v>
+        <v>10509</v>
       </c>
       <c r="C5">
-        <v>10880</v>
+        <v>10509</v>
       </c>
       <c r="D5">
-        <v>10880</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10948</v>
+        <v>10700</v>
       </c>
       <c r="C6">
-        <v>10948</v>
+        <v>10700</v>
       </c>
       <c r="D6">
-        <v>10948</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19162</v>
+        <v>10700</v>
       </c>
       <c r="C7">
-        <v>19162</v>
+        <v>10700</v>
       </c>
       <c r="D7">
-        <v>19162</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10244</v>
+        <v>10880</v>
       </c>
       <c r="C8">
-        <v>10244</v>
+        <v>10880</v>
       </c>
       <c r="D8">
-        <v>10244</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10509</v>
+        <v>10880</v>
       </c>
       <c r="C9">
-        <v>10509</v>
+        <v>10880</v>
       </c>
       <c r="D9">
-        <v>10509</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10700</v>
+        <v>10948</v>
       </c>
       <c r="C10">
-        <v>10700</v>
+        <v>10948</v>
       </c>
       <c r="D10">
-        <v>10700</v>
+        <v>10948</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10880</v>
+        <v>10948</v>
       </c>
       <c r="C11">
-        <v>10880</v>
+        <v>10948</v>
       </c>
       <c r="D11">
-        <v>10880</v>
+        <v>10948</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10948</v>
+        <v>19162</v>
       </c>
       <c r="C12">
-        <v>10948</v>
+        <v>19162</v>
       </c>
       <c r="D12">
-        <v>10948</v>
+        <v>19162</v>
       </c>
     </row>
     <row r="13" spans="1:4">
